--- a/BackTest/2020-01-12 BackTest XRP.xlsx
+++ b/BackTest/2020-01-12 BackTest XRP.xlsx
@@ -1256,20 +1256,14 @@
         <v>237.4883333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,20 +1291,14 @@
         <v>237.4683333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1349,7 +1337,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1426,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>236.8</v>
+        <v>236.4</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
@@ -1467,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>236.9</v>
+        <v>237</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
@@ -1549,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>236.5</v>
+        <v>237</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
@@ -1590,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>236.5</v>
+        <v>237</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1631,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>236.5</v>
+        <v>237</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
@@ -1666,14 +1654,12 @@
         <v>237.4633333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1707,14 +1693,12 @@
         <v>237.4483333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1748,14 +1732,12 @@
         <v>237.4299999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1789,14 +1771,12 @@
         <v>237.41</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1830,14 +1810,12 @@
         <v>237.3866666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1871,14 +1849,12 @@
         <v>237.3633333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1912,14 +1888,12 @@
         <v>237.3366666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1953,14 +1927,12 @@
         <v>237.3083333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1994,14 +1966,12 @@
         <v>237.2933333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2035,14 +2005,12 @@
         <v>237.275</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2076,14 +2044,12 @@
         <v>237.2533333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2117,14 +2083,12 @@
         <v>237.23</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2158,14 +2122,12 @@
         <v>237.1883333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2199,14 +2161,12 @@
         <v>237.165</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>237</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2240,14 +2200,12 @@
         <v>237.14</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>237</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2281,14 +2239,12 @@
         <v>237.1116666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>237</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2322,14 +2278,12 @@
         <v>237.0833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2363,14 +2317,12 @@
         <v>237.0633333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2404,14 +2356,12 @@
         <v>237.0383333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2445,14 +2395,12 @@
         <v>237.0166666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2486,14 +2434,12 @@
         <v>236.9916666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>237</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -9352,14 +9298,12 @@
         <v>237.2166666666666</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -9393,14 +9337,12 @@
         <v>237.1916666666666</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -9434,14 +9376,12 @@
         <v>237.1666666666666</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9475,14 +9415,12 @@
         <v>237.1416666666666</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>236.1</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9516,14 +9454,12 @@
         <v>237.1216666666666</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9557,14 +9493,12 @@
         <v>237.1083333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9598,14 +9532,12 @@
         <v>237.0933333333333</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9639,14 +9571,12 @@
         <v>237.0716666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9680,14 +9610,12 @@
         <v>237.0516666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9721,14 +9649,12 @@
         <v>237.0383333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9762,14 +9688,12 @@
         <v>237.0216666666667</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9803,14 +9727,12 @@
         <v>237.005</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9844,14 +9766,12 @@
         <v>236.9883333333333</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9885,14 +9805,12 @@
         <v>236.9816666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9926,14 +9844,12 @@
         <v>236.9766666666666</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9967,14 +9883,12 @@
         <v>236.9716666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -10008,14 +9922,12 @@
         <v>236.965</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -10049,14 +9961,12 @@
         <v>236.96</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -10090,14 +10000,12 @@
         <v>236.95</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>237</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -10131,14 +10039,12 @@
         <v>236.9466666666667</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
@@ -10172,14 +10078,12 @@
         <v>236.9433333333333</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>237</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -10213,14 +10117,12 @@
         <v>236.9383333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -10254,14 +10156,12 @@
         <v>236.9316666666666</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
@@ -10295,14 +10195,12 @@
         <v>236.9183333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>237</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -10336,14 +10234,12 @@
         <v>236.92</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -10377,14 +10273,12 @@
         <v>236.9266666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>237.2</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
@@ -10418,14 +10312,12 @@
         <v>236.925</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -10459,14 +10351,12 @@
         <v>236.9266666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>237.5</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -10500,14 +10390,12 @@
         <v>236.9266666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -10541,14 +10429,12 @@
         <v>236.92</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -10582,14 +10468,12 @@
         <v>236.9133333333334</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -10623,14 +10507,12 @@
         <v>236.9</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -10664,14 +10546,12 @@
         <v>236.8933333333334</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -10705,14 +10585,12 @@
         <v>236.875</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10746,14 +10624,12 @@
         <v>236.8616666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10787,14 +10663,12 @@
         <v>236.8566666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10828,14 +10702,12 @@
         <v>236.8366666666667</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10869,14 +10741,12 @@
         <v>236.83</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -10910,14 +10780,12 @@
         <v>236.8016666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -10951,14 +10819,12 @@
         <v>236.78</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>236.3</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10992,14 +10858,12 @@
         <v>236.75</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -11033,14 +10897,12 @@
         <v>236.7366666666667</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
@@ -11074,14 +10936,12 @@
         <v>236.7216666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
@@ -11115,14 +10975,12 @@
         <v>236.7</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
@@ -11156,14 +11014,12 @@
         <v>236.675</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -11197,14 +11053,12 @@
         <v>236.6483333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
@@ -11238,14 +11092,12 @@
         <v>236.64</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -11279,14 +11131,12 @@
         <v>236.6283333333334</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -11320,14 +11170,12 @@
         <v>236.6233333333334</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -11361,14 +11209,12 @@
         <v>236.6166666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -11402,14 +11248,12 @@
         <v>236.6166666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -11443,14 +11287,12 @@
         <v>236.6150000000001</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -11484,14 +11326,12 @@
         <v>236.6066666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -11525,14 +11365,12 @@
         <v>236.5966666666667</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -11566,14 +11404,12 @@
         <v>236.5883333333334</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -11607,14 +11443,12 @@
         <v>236.5883333333334</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -11648,14 +11482,12 @@
         <v>236.5916666666667</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -11689,14 +11521,12 @@
         <v>236.5916666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -11730,14 +11560,12 @@
         <v>236.6133333333333</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -11771,14 +11599,12 @@
         <v>236.6283333333334</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>237.3</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -11812,14 +11638,12 @@
         <v>236.645</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>236.9</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -11853,14 +11677,12 @@
         <v>236.66</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>237</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -11894,14 +11716,12 @@
         <v>236.6916666666667</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>237</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -11935,14 +11755,12 @@
         <v>236.7233333333333</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>237.6</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -11976,14 +11794,12 @@
         <v>236.7516666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>238</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -12917,18 +12733,16 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12956,15 +12770,11 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12999,11 +12809,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13038,11 +12844,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13077,11 +12879,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13116,11 +12914,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +12949,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13194,11 +12984,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13233,11 +13019,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13272,11 +13054,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13311,11 +13089,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13350,11 +13124,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +13159,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +13194,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13467,11 +13229,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +13264,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13545,11 +13299,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +13334,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13623,11 +13369,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13662,11 +13404,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +13439,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13740,11 +13474,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13779,11 +13509,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13818,11 +13544,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13857,11 +13579,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +13614,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13935,11 +13649,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13974,11 +13684,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +13719,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14052,11 +13754,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +13789,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14130,11 +13824,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14169,11 +13859,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +13894,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14247,11 +13929,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14286,11 +13964,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14325,11 +13999,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +14034,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14403,11 +14069,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +14104,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14481,11 +14139,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14520,11 +14174,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14559,11 +14209,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14598,11 +14244,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14637,11 +14279,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14676,11 +14314,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14715,11 +14349,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14754,11 +14384,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +14419,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +14454,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +14489,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14910,11 +14524,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +14559,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14988,11 +14594,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -15027,11 +14629,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -15066,11 +14664,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +14699,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -15144,11 +14734,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15183,11 +14769,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15222,11 +14804,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15261,11 +14839,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15300,11 +14874,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15339,11 +14909,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15378,11 +14944,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15417,11 +14979,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15456,11 +15014,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15495,11 +15049,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +15084,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15573,11 +15119,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15612,11 +15154,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15651,11 +15189,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15690,11 +15224,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15259,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +15294,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15807,11 +15329,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15846,11 +15364,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15885,11 +15399,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15924,11 +15434,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15963,11 +15469,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -16002,11 +15504,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -16041,11 +15539,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -16080,11 +15574,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -16119,11 +15609,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -16158,11 +15644,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -16197,11 +15679,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +15714,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +15749,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +15784,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16353,11 +15819,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16388,16 +15850,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -16425,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
@@ -16460,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
@@ -16565,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
@@ -16600,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
@@ -16635,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
@@ -16670,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
@@ -16810,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
@@ -16845,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
@@ -36442,14 +35902,20 @@
         <v>238.2016666666666</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I981" t="n">
         <v>0</v>
       </c>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>236.7</v>
+      </c>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -36477,14 +35943,20 @@
         <v>238.1616666666666</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I982" t="n">
         <v>0</v>
       </c>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>236.9</v>
+      </c>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -36512,14 +35984,20 @@
         <v>238.1249999999999</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I983" t="n">
         <v>0</v>
       </c>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>236.9</v>
+      </c>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -36547,14 +36025,20 @@
         <v>238.0866666666666</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I984" t="n">
         <v>0</v>
       </c>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>237.1</v>
+      </c>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -36582,14 +36066,20 @@
         <v>238.0533333333333</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>237</v>
+      </c>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -36617,14 +36107,20 @@
         <v>238.02</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I986" t="n">
         <v>0</v>
       </c>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>237.2</v>
+      </c>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -36652,14 +36148,20 @@
         <v>237.9883333333333</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I987" t="n">
         <v>0</v>
       </c>
-      <c r="J987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>237</v>
+      </c>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -36694,7 +36196,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -36729,7 +36235,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -36764,7 +36274,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -36799,7 +36313,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -36834,7 +36352,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -36869,7 +36391,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -36904,7 +36430,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -36939,7 +36469,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -36974,7 +36508,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -37009,7 +36547,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -37044,7 +36586,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -37079,7 +36625,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -37114,7 +36664,11 @@
       </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr"/>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -37149,7 +36703,11 @@
       </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr"/>
-      <c r="L1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -37184,7 +36742,11 @@
       </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr"/>
-      <c r="L1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -37219,7 +36781,11 @@
       </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -37254,7 +36820,11 @@
       </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr"/>
-      <c r="L1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -37289,7 +36859,11 @@
       </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr"/>
-      <c r="L1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -37324,7 +36898,11 @@
       </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr"/>
-      <c r="L1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -37359,7 +36937,11 @@
       </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr"/>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -37394,7 +36976,11 @@
       </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr"/>
-      <c r="L1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -37429,7 +37015,11 @@
       </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr"/>
-      <c r="L1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -37464,7 +37054,11 @@
       </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr"/>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -37499,7 +37093,11 @@
       </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr"/>
-      <c r="L1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -37534,7 +37132,11 @@
       </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr"/>
-      <c r="L1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -37569,7 +37171,11 @@
       </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr"/>
-      <c r="L1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -37604,7 +37210,11 @@
       </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr"/>
-      <c r="L1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -37639,7 +37249,11 @@
       </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr"/>
-      <c r="L1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -37674,7 +37288,11 @@
       </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
-      <c r="L1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -37709,7 +37327,11 @@
       </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr"/>
-      <c r="L1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -37744,7 +37366,11 @@
       </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -37772,18 +37398,16 @@
         <v>237.085</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="n">
         <v>0</v>
       </c>
-      <c r="J1019" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M1019" t="n">
@@ -37813,14 +37437,12 @@
         <v>237.0716666666667</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="n">
         <v>0</v>
       </c>
-      <c r="J1020" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="inlineStr">
         <is>
@@ -37854,14 +37476,12 @@
         <v>237.0633333333333</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="n">
         <v>0</v>
       </c>
-      <c r="J1021" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="inlineStr">
         <is>
@@ -37895,14 +37515,12 @@
         <v>237.0516666666666</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="n">
         <v>0</v>
       </c>
-      <c r="J1022" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="inlineStr">
         <is>
@@ -37936,14 +37554,12 @@
         <v>237.04</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="n">
         <v>0</v>
       </c>
-      <c r="J1023" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="inlineStr">
         <is>
@@ -37977,14 +37593,12 @@
         <v>237.0299999999999</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="n">
         <v>0</v>
       </c>
-      <c r="J1024" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="inlineStr">
         <is>
@@ -38018,14 +37632,12 @@
         <v>237.0183333333333</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="n">
         <v>0</v>
       </c>
-      <c r="J1025" t="n">
-        <v>236.6</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="inlineStr">
         <is>
@@ -38059,14 +37671,12 @@
         <v>237.0116666666666</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="n">
         <v>0</v>
       </c>
-      <c r="J1026" t="n">
-        <v>237</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="inlineStr">
         <is>
@@ -38100,14 +37710,12 @@
         <v>236.9933333333333</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="n">
         <v>0</v>
       </c>
-      <c r="J1027" t="n">
-        <v>236.7</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="inlineStr">
         <is>
@@ -38141,14 +37749,12 @@
         <v>236.9816666666666</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="n">
         <v>0</v>
       </c>
-      <c r="J1028" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="inlineStr">
         <is>
@@ -38182,14 +37788,12 @@
         <v>236.9716666666666</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="n">
         <v>0</v>
       </c>
-      <c r="J1029" t="n">
-        <v>236.8</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="inlineStr">
         <is>
@@ -38223,14 +37827,12 @@
         <v>236.9649999999999</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="n">
         <v>0</v>
       </c>
-      <c r="J1030" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="inlineStr">
         <is>
@@ -38264,14 +37866,12 @@
         <v>236.9616666666666</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="n">
         <v>0</v>
       </c>
-      <c r="J1031" t="n">
-        <v>237.1</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="inlineStr">
         <is>
@@ -38305,14 +37905,12 @@
         <v>236.9633333333333</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="n">
         <v>0</v>
       </c>
-      <c r="J1032" t="n">
-        <v>237.2</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="inlineStr">
         <is>
@@ -38346,14 +37944,12 @@
         <v>236.9583333333333</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="n">
         <v>0</v>
       </c>
-      <c r="J1033" t="n">
-        <v>237.2</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="inlineStr">
         <is>
@@ -38387,14 +37983,12 @@
         <v>236.9666666666666</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="n">
         <v>0</v>
       </c>
-      <c r="J1034" t="n">
-        <v>237.4</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="inlineStr">
         <is>

--- a/BackTest/2020-01-12 BackTest XRP.xlsx
+++ b/BackTest/2020-01-12 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,10 +1441,14 @@
         <v>-1628129.05012127</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>237</v>
+      </c>
+      <c r="J32" t="n">
+        <v>237</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1478,19 @@
         <v>-1628129.05012127</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>237</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1519,19 @@
         <v>-1617827.94961706</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>237</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1560,19 @@
         <v>-1551140.59152127</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>237</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1601,19 @@
         <v>-1551140.59152127</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>237</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1642,19 @@
         <v>-1551140.59152127</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>237</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1686,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>237</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1725,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>237</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1764,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>237</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1803,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>237</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1842,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>237</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1881,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>237</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>237</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1959,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>237</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1998,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>237</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2037,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>237</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2076,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>237</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2115,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>237</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2154,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>237</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2193,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>237</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2232,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>237</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2271,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>237</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2310,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>237</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2349,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>237</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2388,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>237</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2427,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>237</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2466,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>237</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2505,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>237</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2544,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>237</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>237</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>237</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>237</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>237</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2739,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>237</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>237</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2817,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>237</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2856,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>237</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2895,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>237</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2934,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>237</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2973,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>237</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>237</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3051,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>237</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3090,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>237</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3129,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>237</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3168,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>237</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>237</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3246,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>237</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>237</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3321,19 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>237</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3362,19 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>237</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3403,19 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>237</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3444,19 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>237</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3485,19 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>237</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3526,19 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>237</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3567,19 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>237</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3608,19 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>237</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3649,19 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>237</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3690,19 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>237</v>
+      </c>
+      <c r="J89" t="n">
+        <v>237</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3731,19 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>237</v>
+      </c>
+      <c r="J90" t="n">
+        <v>237</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3772,19 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>237</v>
+      </c>
+      <c r="J91" t="n">
+        <v>237</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3813,19 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>237</v>
+      </c>
+      <c r="J92" t="n">
+        <v>237</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3854,19 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>237</v>
+      </c>
+      <c r="J93" t="n">
+        <v>237</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3895,19 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>237</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3936,19 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>237</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3977,19 @@
         <v>-1277710.78508146</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>237</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4018,19 @@
         <v>-1288627.97328146</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>237</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,15 +4059,19 @@
         <v>-1288627.97328146</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>236.2</v>
       </c>
       <c r="J98" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>237</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,17 +4100,17 @@
         <v>-1353817.97328146</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>236.2</v>
       </c>
       <c r="J99" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3697,13 +4141,13 @@
         <v>-1325750.84188146</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>236</v>
       </c>
       <c r="J100" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3738,13 +4182,13 @@
         <v>-1325750.84188146</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>236.1</v>
       </c>
       <c r="J101" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3779,13 +4223,13 @@
         <v>-1238650.43338146</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>236.1</v>
       </c>
       <c r="J102" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3820,13 +4264,13 @@
         <v>-1248620.43338146</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>236.3</v>
       </c>
       <c r="J103" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3861,13 +4305,13 @@
         <v>-1247620.43338146</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>236.1</v>
       </c>
       <c r="J104" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3902,13 +4346,13 @@
         <v>-1238023.50358146</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>236.2</v>
       </c>
       <c r="J105" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3943,13 +4387,13 @@
         <v>-1242558.63988146</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>236.7</v>
       </c>
       <c r="J106" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -3984,13 +4428,13 @@
         <v>-1237918.48078146</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>236.4</v>
       </c>
       <c r="J107" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4025,13 +4469,13 @@
         <v>-1237918.48078146</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>237</v>
       </c>
       <c r="J108" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4066,13 +4510,13 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>237</v>
       </c>
       <c r="J109" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4107,11 +4551,13 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>237.3</v>
+      </c>
       <c r="J110" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4146,11 +4592,13 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>237.3</v>
+      </c>
       <c r="J111" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4189,7 +4637,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4224,11 +4672,13 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>237.3</v>
+      </c>
       <c r="J113" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4263,13 +4713,11 @@
         <v>-1213145.26848146</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>237.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4304,13 +4752,11 @@
         <v>-1199961.87358146</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4345,13 +4791,11 @@
         <v>-1084557.65182277</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4386,13 +4830,11 @@
         <v>-1108616.65512277</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4431,7 +4873,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4470,7 +4912,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4509,7 +4951,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4548,7 +4990,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4587,7 +5029,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4626,7 +5068,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4665,7 +5107,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4704,7 +5146,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4743,7 +5185,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4782,7 +5224,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4821,7 +5263,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4860,7 +5302,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4899,7 +5341,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4938,7 +5380,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4977,7 +5419,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5016,7 +5458,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5055,7 +5497,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5094,7 +5536,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5133,7 +5575,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5172,7 +5614,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5211,7 +5653,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5250,7 +5692,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5289,7 +5731,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5328,7 +5770,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5367,7 +5809,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5406,7 +5848,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5445,7 +5887,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5484,7 +5926,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5523,7 +5965,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5562,7 +6004,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5601,7 +6043,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5640,7 +6082,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5679,7 +6121,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5718,7 +6160,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5757,7 +6199,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5796,7 +6238,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5835,7 +6277,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5874,7 +6316,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5913,7 +6355,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5952,7 +6394,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5991,7 +6433,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6030,7 +6472,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6069,7 +6511,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6108,7 +6550,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6147,7 +6589,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6186,7 +6628,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6225,7 +6667,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6264,7 +6706,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6303,7 +6745,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6342,7 +6784,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6381,7 +6823,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6420,7 +6862,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6459,7 +6901,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6498,7 +6940,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6537,7 +6979,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6576,7 +7018,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6615,7 +7057,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6654,7 +7096,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6693,7 +7135,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6732,7 +7174,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6771,7 +7213,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6810,7 +7252,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6849,7 +7291,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6888,7 +7330,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6927,7 +7369,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6966,7 +7408,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7005,7 +7447,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7044,7 +7486,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7083,7 +7525,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7122,7 +7564,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7161,7 +7603,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7200,7 +7642,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7239,7 +7681,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7278,7 +7720,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7317,7 +7759,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7356,7 +7798,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7395,7 +7837,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7434,7 +7876,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7473,7 +7915,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7512,7 +7954,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7551,7 +7993,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7590,7 +8032,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7629,7 +8071,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7668,7 +8110,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7707,7 +8149,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7746,7 +8188,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7785,7 +8227,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7824,7 +8266,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7863,7 +8305,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7902,7 +8344,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7941,7 +8383,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7980,7 +8422,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8019,7 +8461,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8058,7 +8500,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8097,7 +8539,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8136,7 +8578,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8175,7 +8617,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8214,7 +8656,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8253,7 +8695,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8292,7 +8734,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8331,7 +8773,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8370,7 +8812,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8409,7 +8851,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8448,7 +8890,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8487,7 +8929,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8526,7 +8968,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8565,7 +9007,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8604,7 +9046,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8643,7 +9085,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8682,7 +9124,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8721,7 +9163,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8760,7 +9202,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8799,7 +9241,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8838,7 +9280,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8877,7 +9319,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8916,7 +9358,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8955,7 +9397,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8994,7 +9436,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9033,7 +9475,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9072,7 +9514,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9111,7 +9553,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9150,7 +9592,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9189,7 +9631,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9228,7 +9670,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9267,7 +9709,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9306,7 +9748,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9345,7 +9787,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9384,7 +9826,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9423,7 +9865,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9462,7 +9904,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9501,7 +9943,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9540,7 +9982,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9579,7 +10021,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9618,7 +10060,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9657,7 +10099,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9696,7 +10138,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9735,7 +10177,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9774,7 +10216,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9813,7 +10255,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9852,7 +10294,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9891,7 +10333,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9930,7 +10372,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9969,7 +10411,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10008,7 +10450,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10047,7 +10489,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10086,7 +10528,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10125,7 +10567,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10164,7 +10606,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10203,7 +10645,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10242,7 +10684,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10281,7 +10723,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10320,7 +10762,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10359,7 +10801,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10398,7 +10840,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10437,7 +10879,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10476,7 +10918,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10515,7 +10957,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10554,7 +10996,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10593,7 +11035,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10632,7 +11074,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10671,7 +11113,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10710,7 +11152,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10749,7 +11191,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10788,7 +11230,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10827,7 +11269,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10866,7 +11308,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10905,7 +11347,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10944,7 +11386,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10983,7 +11425,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11022,7 +11464,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11061,7 +11503,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11100,7 +11542,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11139,7 +11581,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11178,7 +11620,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11217,7 +11659,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11252,11 +11694,13 @@
         <v>-368861.6375501904</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J293" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11291,11 +11735,13 @@
         <v>-368440.7556501904</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J294" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11330,11 +11776,13 @@
         <v>-368440.7556501904</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>236.2</v>
+      </c>
       <c r="J295" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11369,11 +11817,13 @@
         <v>-364214.2129621104</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>236.2</v>
+      </c>
       <c r="J296" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11408,11 +11858,13 @@
         <v>-364631.6739621104</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>236.6</v>
+      </c>
       <c r="J297" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11447,11 +11899,13 @@
         <v>-364501.3353621104</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>236.2</v>
+      </c>
       <c r="J298" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11486,13 +11940,13 @@
         <v>-360101.0948621104</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>236.3</v>
       </c>
       <c r="J299" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11527,13 +11981,13 @@
         <v>-360101.0948621104</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>236.6</v>
       </c>
       <c r="J300" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11568,13 +12022,13 @@
         <v>-360101.0948621104</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>236.6</v>
       </c>
       <c r="J301" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11609,13 +12063,13 @@
         <v>-360101.0948621104</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>236.6</v>
       </c>
       <c r="J302" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11650,11 +12104,13 @@
         <v>-357941.9889621104</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>236.6</v>
+      </c>
       <c r="J303" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11689,11 +12145,13 @@
         <v>-203161.8869621104</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>236.8</v>
+      </c>
       <c r="J304" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11728,11 +12186,13 @@
         <v>-184108.3054621104</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>236.9</v>
+      </c>
       <c r="J305" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11771,7 +12231,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11810,7 +12270,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11849,7 +12309,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11888,7 +12348,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11927,7 +12387,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11966,7 +12426,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12005,7 +12465,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12044,7 +12504,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12083,7 +12543,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12122,7 +12582,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12161,7 +12621,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12200,7 +12660,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12239,7 +12699,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12278,7 +12738,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12317,7 +12777,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12356,7 +12816,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12395,7 +12855,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12434,7 +12894,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12473,7 +12933,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12512,7 +12972,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12551,7 +13011,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12590,7 +13050,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12629,7 +13089,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12668,7 +13128,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12707,7 +13167,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12746,7 +13206,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12781,11 +13241,13 @@
         <v>-222733.0980951704</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>236.2</v>
+      </c>
       <c r="J332" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12820,11 +13282,13 @@
         <v>-229475.5324951704</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J333" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12859,11 +13323,13 @@
         <v>-228661.7297951704</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>236.3</v>
+      </c>
       <c r="J334" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12898,11 +13364,13 @@
         <v>-250199.8171951704</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>236.5</v>
+      </c>
       <c r="J335" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12937,11 +13405,13 @@
         <v>-250157.5696244104</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J336" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12976,11 +13446,13 @@
         <v>-250157.5696244104</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J337" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13015,11 +13487,13 @@
         <v>-250157.5696244104</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J338" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13054,11 +13528,13 @@
         <v>-266626.8748244104</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J339" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13093,11 +13569,13 @@
         <v>-254362.4090244104</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J340" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13132,11 +13610,13 @@
         <v>-258830.3619244104</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>236.9</v>
+      </c>
       <c r="J341" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13171,11 +13651,13 @@
         <v>-291703.3995244104</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>236.6</v>
+      </c>
       <c r="J342" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13210,11 +13692,13 @@
         <v>-291703.3995244104</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J343" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13249,11 +13733,13 @@
         <v>-291703.3995244104</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J344" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13288,11 +13774,13 @@
         <v>-273242.2164393103</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J345" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13327,11 +13815,13 @@
         <v>-273242.2164393103</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>236.9</v>
+      </c>
       <c r="J346" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13366,11 +13856,13 @@
         <v>-273242.2164393103</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>236.9</v>
+      </c>
       <c r="J347" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13405,11 +13897,13 @@
         <v>-233610.3363393103</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>236.9</v>
+      </c>
       <c r="J348" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13448,7 +13942,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13487,7 +13981,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13526,7 +14020,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13565,7 +14059,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13604,7 +14098,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13643,7 +14137,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13682,7 +14176,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13721,7 +14215,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13760,7 +14254,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13799,7 +14293,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13838,7 +14332,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13877,7 +14371,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13916,7 +14410,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13955,7 +14449,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13994,7 +14488,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14033,7 +14527,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14072,7 +14566,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14111,7 +14605,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14150,7 +14644,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14189,7 +14683,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14228,7 +14722,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14267,7 +14761,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14306,7 +14800,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14345,7 +14839,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14384,7 +14878,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14423,7 +14917,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14462,7 +14956,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14501,7 +14995,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14540,7 +15034,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14579,7 +15073,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14618,7 +15112,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14657,7 +15151,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14696,7 +15190,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14735,7 +15229,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14774,7 +15268,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14813,7 +15307,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14852,7 +15346,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14891,7 +15385,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14930,7 +15424,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14969,7 +15463,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15008,7 +15502,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15047,7 +15541,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15086,7 +15580,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15125,7 +15619,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15164,7 +15658,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15203,7 +15697,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15242,7 +15736,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15281,7 +15775,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15320,7 +15814,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15359,7 +15853,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15398,7 +15892,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15437,7 +15931,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15476,7 +15970,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15511,11 +16005,11 @@
         <v>2042247.9303128</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15550,11 +16044,11 @@
         <v>2036379.045812801</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15589,11 +16083,11 @@
         <v>2052027.260112801</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15628,11 +16122,11 @@
         <v>2052027.260112801</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15667,11 +16161,11 @@
         <v>2052027.260112801</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15706,11 +16200,11 @@
         <v>2052027.260112801</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15749,7 +16243,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15788,7 +16282,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15827,7 +16321,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15866,7 +16360,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15905,7 +16399,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15944,7 +16438,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15979,11 +16473,11 @@
         <v>2261926.120203191</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16018,11 +16512,11 @@
         <v>2227021.715103191</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16057,11 +16551,11 @@
         <v>2174976.502703191</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16100,7 +16594,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16139,7 +16633,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16178,7 +16672,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16217,7 +16711,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16256,7 +16750,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16295,7 +16789,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16334,7 +16828,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16373,7 +16867,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16412,7 +16906,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16451,7 +16945,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16490,7 +16984,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16529,7 +17023,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16568,7 +17062,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16607,7 +17101,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16646,7 +17140,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16685,7 +17179,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16724,7 +17218,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16763,7 +17257,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16802,7 +17296,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16841,7 +17335,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16880,7 +17374,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16919,7 +17413,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16958,7 +17452,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16997,7 +17491,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17036,7 +17530,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17075,7 +17569,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17114,7 +17608,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17153,7 +17647,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17192,7 +17686,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17231,7 +17725,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17270,7 +17764,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17309,7 +17803,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17348,7 +17842,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17387,7 +17881,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17426,7 +17920,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17465,7 +17959,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17504,7 +17998,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17543,7 +18037,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17582,7 +18076,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17621,7 +18115,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17660,7 +18154,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17699,7 +18193,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17738,7 +18232,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17777,7 +18271,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17816,7 +18310,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17855,7 +18349,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17894,7 +18388,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17933,7 +18427,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17972,7 +18466,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18007,19 +18501,19 @@
         <v>2980201.775412991</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>236.2</v>
+        <v>237</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L466" t="n">
-        <v>1.017438611346317</v>
+        <v>1</v>
       </c>
       <c r="M466" t="inlineStr"/>
     </row>
@@ -18046,11 +18540,17 @@
         <v>2897644.418212991</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>237</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18079,11 +18579,17 @@
         <v>2946628.981963511</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>237</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18112,11 +18618,17 @@
         <v>3018594.50208731</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>237</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18145,11 +18657,17 @@
         <v>3271752.857563511</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>237</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18178,11 +18696,17 @@
         <v>3362872.45163866</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>237</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18211,11 +18735,17 @@
         <v>3283898.82803866</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>237</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18244,11 +18774,17 @@
         <v>3283898.82803866</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>237</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18277,11 +18813,17 @@
         <v>3283898.82803866</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>237</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18310,11 +18852,17 @@
         <v>3283898.82803866</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>237</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18343,11 +18891,17 @@
         <v>3317573.02053866</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>237</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18376,11 +18930,17 @@
         <v>3423161.24033866</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>237</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18409,11 +18969,17 @@
         <v>3242212.76983866</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>237</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18442,11 +19008,17 @@
         <v>3006204.407938661</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>237</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18475,11 +19047,17 @@
         <v>3052832.033538661</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>237</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18508,11 +19086,17 @@
         <v>2878783.115959131</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>237</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18541,11 +19125,17 @@
         <v>2906265.592945511</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>237</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18574,11 +19164,17 @@
         <v>2970160.86290255</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>237</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18607,11 +19203,17 @@
         <v>2943749.072302551</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>237</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18643,8 +19245,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>237</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18676,8 +19284,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>237</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18706,13 +19320,19 @@
         <v>2822509.675902551</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>237</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L487" t="n">
-        <v>1</v>
+        <v>1.017362869198312</v>
       </c>
       <c r="M487" t="inlineStr"/>
     </row>
@@ -18739,7 +19359,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18772,7 +19392,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18805,7 +19425,7 @@
         <v>3068180.700902381</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18838,7 +19458,7 @@
         <v>2954067.82630238</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18871,7 +19491,7 @@
         <v>3447080.843702381</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18904,7 +19524,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18937,7 +19557,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18970,7 +19590,7 @@
         <v>3016176.14260238</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19333,7 +19953,7 @@
         <v>2497364.15066932</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19366,7 +19986,7 @@
         <v>2581315.5703176</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19465,7 +20085,7 @@
         <v>2421170.32215603</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19498,7 +20118,7 @@
         <v>2711202.62285603</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19531,7 +20151,7 @@
         <v>2518822.83805603</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19564,7 +20184,7 @@
         <v>2518822.83805603</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19597,7 +20217,7 @@
         <v>2436226.58675603</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19630,7 +20250,7 @@
         <v>2401530.62815603</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19663,7 +20283,7 @@
         <v>2401530.62815603</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19696,7 +20316,7 @@
         <v>2833885.31890391</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19729,7 +20349,7 @@
         <v>2803564.11550391</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19762,7 +20382,7 @@
         <v>2909579.24320391</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19795,7 +20415,7 @@
         <v>2874872.33640391</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19828,7 +20448,7 @@
         <v>2750285.84900391</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19861,7 +20481,7 @@
         <v>2570549.81526872</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19960,7 +20580,7 @@
         <v>2661010.18817953</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19993,7 +20613,7 @@
         <v>2595822.66499034</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -21346,7 +21966,7 @@
         <v>2586071.121222811</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21379,7 +21999,7 @@
         <v>2557477.085122811</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21412,7 +22032,7 @@
         <v>2494761.370122811</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21478,7 +22098,7 @@
         <v>2534224.041722811</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -42345,6 +42965,6 @@
       <c r="M1203" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>